--- a/Code/Results/Cases/Case_3_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.77560599120065</v>
+        <v>13.8936481850813</v>
       </c>
       <c r="C2">
-        <v>11.47451133834201</v>
+        <v>10.59735749239121</v>
       </c>
       <c r="D2">
-        <v>6.922526000652605</v>
+        <v>8.166759778793239</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.75316579402499</v>
+        <v>44.00087492219443</v>
       </c>
       <c r="G2">
-        <v>2.116999307453541</v>
+        <v>3.713931810602639</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.63738151488169</v>
+        <v>28.88440754206507</v>
       </c>
       <c r="J2">
-        <v>8.299926439455634</v>
+        <v>11.52603766646551</v>
       </c>
       <c r="K2">
-        <v>13.91268301071719</v>
+        <v>14.88178688550446</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.42185996037493</v>
+        <v>21.68586532855986</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.83452484140695</v>
+        <v>13.68454498280087</v>
       </c>
       <c r="C3">
-        <v>10.77555354875863</v>
+        <v>10.43867091367731</v>
       </c>
       <c r="D3">
-        <v>6.528284837475297</v>
+        <v>8.109599212614709</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.81555263321925</v>
+        <v>43.93603146977713</v>
       </c>
       <c r="G3">
-        <v>2.125131616618584</v>
+        <v>3.716857207070902</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.46527445212079</v>
+        <v>28.92071921284065</v>
       </c>
       <c r="J3">
-        <v>8.034397887659976</v>
+        <v>11.51293872351883</v>
       </c>
       <c r="K3">
-        <v>13.13479880764966</v>
+        <v>14.74279332933433</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.62192726928339</v>
+        <v>21.74407199604368</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.24952719195104</v>
+        <v>13.55840901770215</v>
       </c>
       <c r="C4">
-        <v>10.33231781249287</v>
+        <v>10.34322086755793</v>
       </c>
       <c r="D4">
-        <v>6.277895767153073</v>
+        <v>8.076200178254076</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.25786287482833</v>
+        <v>43.9063962854762</v>
       </c>
       <c r="G4">
-        <v>2.130255545895229</v>
+        <v>3.718747075407678</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.37498273935563</v>
+        <v>28.94839315325247</v>
       </c>
       <c r="J4">
-        <v>7.873343343632161</v>
+        <v>11.50727054991812</v>
       </c>
       <c r="K4">
-        <v>12.64293075312894</v>
+        <v>14.66064865370474</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.7487916314429</v>
+        <v>21.78174008309983</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.00565618239613</v>
+        <v>13.50764310668389</v>
       </c>
       <c r="C5">
-        <v>10.14828662386382</v>
+        <v>10.30487423839076</v>
       </c>
       <c r="D5">
-        <v>6.173861787653212</v>
+        <v>8.063029121009951</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.03524146439754</v>
+        <v>43.89688380662415</v>
       </c>
       <c r="G5">
-        <v>2.132377899822098</v>
+        <v>3.719540847657932</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.34191404781532</v>
+        <v>28.96102003402915</v>
       </c>
       <c r="J5">
-        <v>7.808275165179132</v>
+        <v>11.505559173429</v>
       </c>
       <c r="K5">
-        <v>12.43910694991793</v>
+        <v>14.62801299815201</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.80149604839839</v>
+        <v>21.79757581992575</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.96483593160049</v>
+        <v>13.49925383689722</v>
       </c>
       <c r="C6">
-        <v>10.11752708965772</v>
+        <v>10.29854150386067</v>
       </c>
       <c r="D6">
-        <v>6.15646954544581</v>
+        <v>8.06086895826542</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.99855896470275</v>
+        <v>43.8954592223866</v>
       </c>
       <c r="G6">
-        <v>2.132732428263973</v>
+        <v>3.719674082909986</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.33664385282479</v>
+        <v>28.96319813410103</v>
       </c>
       <c r="J6">
-        <v>7.797506615380597</v>
+        <v>11.50531117636661</v>
       </c>
       <c r="K6">
-        <v>12.40506451914901</v>
+        <v>14.62264552788335</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.81030823240908</v>
+        <v>21.80023468506425</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.24626021723756</v>
+        <v>13.55772170770595</v>
       </c>
       <c r="C7">
-        <v>10.32984950497906</v>
+        <v>10.34270141767414</v>
       </c>
       <c r="D7">
-        <v>6.276500678046891</v>
+        <v>8.076020754159801</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.25484158198989</v>
+        <v>43.90625761066677</v>
       </c>
       <c r="G7">
-        <v>2.130284027916944</v>
+        <v>3.718757684689031</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.3745218667657</v>
+        <v>28.94855798380075</v>
       </c>
       <c r="J7">
-        <v>7.872463443608074</v>
+        <v>11.50724504514578</v>
       </c>
       <c r="K7">
-        <v>12.64019531764341</v>
+        <v>14.66020507619291</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.74949835311269</v>
+        <v>21.78195168205934</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.43960694720417</v>
+        <v>13.82112298801668</v>
       </c>
       <c r="C8">
-        <v>11.23649686769093</v>
+        <v>10.54226149486832</v>
       </c>
       <c r="D8">
-        <v>6.788368950372458</v>
+        <v>8.146706105228017</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.426206654213</v>
+        <v>43.97640758638906</v>
       </c>
       <c r="G8">
-        <v>2.119777115571996</v>
+        <v>3.714921097718156</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.57476137543922</v>
+        <v>28.89580984542014</v>
       </c>
       <c r="J8">
-        <v>8.207998228690609</v>
+        <v>11.52102921359962</v>
       </c>
       <c r="K8">
-        <v>13.64752951850293</v>
+        <v>14.83321957424218</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.49000452046956</v>
+        <v>21.70553501345188</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.83236012073415</v>
+        <v>14.35249076596163</v>
       </c>
       <c r="C9">
-        <v>12.89907680928785</v>
+        <v>10.94705882343282</v>
       </c>
       <c r="D9">
-        <v>7.723056463885222</v>
+        <v>8.298212019862747</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.86151381575357</v>
+        <v>44.1944502990545</v>
       </c>
       <c r="G9">
-        <v>2.100138794984062</v>
+        <v>3.70813693947324</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.09577260475067</v>
+        <v>28.83516633386812</v>
       </c>
       <c r="J9">
-        <v>8.879186055753497</v>
+        <v>11.56682667001515</v>
       </c>
       <c r="K9">
-        <v>15.71820164873295</v>
+        <v>15.19626834355792</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.01341122140258</v>
+        <v>21.57095812667518</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.44501813337082</v>
+        <v>14.74785463664231</v>
       </c>
       <c r="C10">
-        <v>14.10304748040028</v>
+        <v>11.24959701496158</v>
       </c>
       <c r="D10">
-        <v>8.370455396970756</v>
+        <v>8.416563668046926</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.7300790617815</v>
+        <v>44.40319614351255</v>
       </c>
       <c r="G10">
-        <v>2.086191533916764</v>
+        <v>3.703598046345637</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.56539588258685</v>
+        <v>28.81684888471067</v>
       </c>
       <c r="J10">
-        <v>9.377617219821518</v>
+        <v>11.61179045826198</v>
       </c>
       <c r="K10">
-        <v>17.23061648201911</v>
+        <v>15.4752492467921</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.68366793511872</v>
+        <v>21.48135518972699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.14607425967187</v>
+        <v>14.9279460075841</v>
       </c>
       <c r="C11">
-        <v>14.64664648261914</v>
+        <v>11.38770023459126</v>
       </c>
       <c r="D11">
-        <v>8.685423237680721</v>
+        <v>8.471748409061533</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>39.59683058087993</v>
+        <v>44.5085486139165</v>
       </c>
       <c r="G11">
-        <v>2.079924464011663</v>
+        <v>3.701628773244371</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.7997615322361</v>
+        <v>28.81423748687194</v>
       </c>
       <c r="J11">
-        <v>9.605147614211262</v>
+        <v>11.63466778198404</v>
       </c>
       <c r="K11">
-        <v>17.88848747197618</v>
+        <v>15.60432954337271</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.53834512025941</v>
+        <v>21.44259693250275</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.40699372734491</v>
+        <v>14.99610754469047</v>
       </c>
       <c r="C12">
-        <v>14.84956859756012</v>
+        <v>11.44001256828957</v>
       </c>
       <c r="D12">
-        <v>8.802572417955702</v>
+        <v>8.492822837615549</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.92745155287202</v>
+        <v>44.5499207556925</v>
       </c>
       <c r="G12">
-        <v>2.077560001264544</v>
+        <v>3.700896705862854</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.89164822960835</v>
+        <v>28.81407260364956</v>
       </c>
       <c r="J12">
-        <v>9.691405657824033</v>
+        <v>11.6436755690907</v>
       </c>
       <c r="K12">
-        <v>18.13340760214729</v>
+        <v>15.65347880149712</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.48401813000165</v>
+        <v>21.42820760007767</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.35100052181166</v>
+        <v>14.98143038339692</v>
       </c>
       <c r="C13">
-        <v>14.80599410967135</v>
+        <v>11.42874630234517</v>
       </c>
       <c r="D13">
-        <v>8.777435688913064</v>
+        <v>8.488276466539061</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.85613924008261</v>
+        <v>44.5409451083468</v>
       </c>
       <c r="G13">
-        <v>2.078068883043976</v>
+        <v>3.701053763662073</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.87171668372262</v>
+        <v>28.81407145066557</v>
       </c>
       <c r="J13">
-        <v>9.672824243354018</v>
+        <v>11.64172031774008</v>
       </c>
       <c r="K13">
-        <v>18.0808443047228</v>
+        <v>15.64288233150002</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.49568655271596</v>
+        <v>21.43129381605376</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.16763079436928</v>
+        <v>14.93355479263263</v>
       </c>
       <c r="C14">
-        <v>14.66339904108013</v>
+        <v>11.39200398616394</v>
       </c>
       <c r="D14">
-        <v>8.69510336611317</v>
+        <v>8.473478759114579</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>39.6239827220011</v>
+        <v>44.51192281971076</v>
       </c>
       <c r="G14">
-        <v>2.0797297777959</v>
+        <v>3.701568272427246</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.8072573071249</v>
+        <v>28.8142074018325</v>
       </c>
       <c r="J14">
-        <v>9.612242214814474</v>
+        <v>11.63540197412038</v>
       </c>
       <c r="K14">
-        <v>17.90872060409074</v>
+        <v>15.60836792943189</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.53386130080885</v>
+        <v>21.44140735210341</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.05472223796096</v>
+        <v>14.9042230096029</v>
       </c>
       <c r="C15">
-        <v>14.57567748796011</v>
+        <v>11.3694987478572</v>
       </c>
       <c r="D15">
-        <v>8.64439780543203</v>
+        <v>8.464437317317653</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>39.48209341830928</v>
+        <v>44.49433769572548</v>
       </c>
       <c r="G15">
-        <v>2.080748186109245</v>
+        <v>3.701885199695149</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.76818742324958</v>
+        <v>28.81439801555057</v>
       </c>
       <c r="J15">
-        <v>9.575146366927092</v>
+        <v>11.63157656904352</v>
       </c>
       <c r="K15">
-        <v>17.80274683417563</v>
+        <v>15.58726066841749</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.55733711183465</v>
+        <v>21.44763962504412</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.39855792319976</v>
+        <v>14.73608405381356</v>
       </c>
       <c r="C16">
-        <v>14.0671066393958</v>
+        <v>11.24057668359461</v>
       </c>
       <c r="D16">
-        <v>8.349571349337678</v>
+        <v>8.412982905672866</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.67377010523662</v>
+        <v>44.39651883519506</v>
       </c>
       <c r="G16">
-        <v>2.086602461994081</v>
+        <v>3.703728657836935</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.55050993618104</v>
+        <v>28.81713479161764</v>
       </c>
       <c r="J16">
-        <v>9.362761784220991</v>
+        <v>11.61034381490316</v>
       </c>
       <c r="K16">
-        <v>17.18702771781074</v>
+        <v>15.46685356905479</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.69326173546287</v>
+        <v>21.4839283960042</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.9877710070691</v>
+        <v>14.63294722738613</v>
       </c>
       <c r="C17">
-        <v>13.74979043919482</v>
+        <v>11.16157122236984</v>
       </c>
       <c r="D17">
-        <v>8.181912157338562</v>
+        <v>8.381750462154086</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.18215866190208</v>
+        <v>44.33916055494909</v>
       </c>
       <c r="G17">
-        <v>2.090212101058333</v>
+        <v>3.70488396184833</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.42239114515105</v>
+        <v>28.82028011728188</v>
       </c>
       <c r="J17">
-        <v>9.232657547263955</v>
+        <v>11.5979362472357</v>
       </c>
       <c r="K17">
-        <v>16.80167637763424</v>
+        <v>15.39351325233438</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.77786506639756</v>
+        <v>21.50670300318978</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.7484252695556</v>
+        <v>14.57365211878851</v>
       </c>
       <c r="C18">
-        <v>13.56529111165921</v>
+        <v>11.11617736129914</v>
       </c>
       <c r="D18">
-        <v>8.086407476589475</v>
+        <v>8.363914078346813</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.9009695612361</v>
+        <v>44.30714897663419</v>
       </c>
       <c r="G18">
-        <v>2.092295733240957</v>
+        <v>3.705557454965867</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.35064234595995</v>
+        <v>28.82262769006563</v>
       </c>
       <c r="J18">
-        <v>9.157899749072765</v>
+        <v>11.59102806702357</v>
       </c>
       <c r="K18">
-        <v>16.57718760127895</v>
+        <v>15.35153671445033</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.82696482257163</v>
+        <v>21.51999086757519</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.66685567409267</v>
+        <v>14.55358251010921</v>
       </c>
       <c r="C19">
-        <v>13.50247874882117</v>
+        <v>11.10081766011335</v>
       </c>
       <c r="D19">
-        <v>8.0539106170714</v>
+        <v>8.357897411051422</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.80603472883131</v>
+        <v>44.29647910203041</v>
       </c>
       <c r="G19">
-        <v>2.093002566978812</v>
+        <v>3.705787035074356</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.32667826298508</v>
+        <v>28.82351497414608</v>
       </c>
       <c r="J19">
-        <v>9.132601594260617</v>
+        <v>11.58872839965987</v>
       </c>
       <c r="K19">
-        <v>16.50068710549312</v>
+        <v>15.33736101113617</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.84366359435745</v>
+        <v>21.52452229967403</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.03181704208381</v>
+        <v>14.64392408933576</v>
       </c>
       <c r="C20">
-        <v>13.7837743250158</v>
+        <v>11.16997691013793</v>
       </c>
       <c r="D20">
-        <v>8.199511563843686</v>
+        <v>8.385062111311541</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.23432893209089</v>
+        <v>44.34516519557394</v>
       </c>
       <c r="G20">
-        <v>2.089827093161759</v>
+        <v>3.704760047608476</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.4358275333971</v>
+        <v>28.81988955227999</v>
       </c>
       <c r="J20">
-        <v>9.246499794295309</v>
+        <v>11.59923344943152</v>
       </c>
       <c r="K20">
-        <v>16.84299119885635</v>
+        <v>15.40129935308258</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.76881335092997</v>
+        <v>21.50425909986247</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.22161349751606</v>
+        <v>14.947618510589</v>
       </c>
       <c r="C21">
-        <v>14.7053612338906</v>
+        <v>11.40279608499694</v>
       </c>
       <c r="D21">
-        <v>8.719343491693342</v>
+        <v>8.477820528159365</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>39.69210738119618</v>
+        <v>44.52040741804939</v>
       </c>
       <c r="G21">
-        <v>2.079241716030187</v>
+        <v>3.70141677879578</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.82610415923087</v>
+        <v>28.81414509846302</v>
       </c>
       <c r="J21">
-        <v>9.630034053064273</v>
+        <v>11.63724850361261</v>
       </c>
       <c r="K21">
-        <v>17.95939042346917</v>
+        <v>15.61849867702082</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.52262907240017</v>
+        <v>21.43842895958375</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.97272975145177</v>
+        <v>15.14586489209724</v>
       </c>
       <c r="C22">
-        <v>15.29066913241508</v>
+        <v>11.55502462964447</v>
       </c>
       <c r="D22">
-        <v>9.056440613029821</v>
+        <v>8.539468403488398</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>40.65887474432154</v>
+        <v>44.64354067342819</v>
       </c>
       <c r="G22">
-        <v>2.072373201597095</v>
+        <v>3.699311307107043</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>22.0995381182748</v>
+        <v>28.8151939528233</v>
       </c>
       <c r="J22">
-        <v>9.881264498150824</v>
+        <v>11.66410032358261</v>
       </c>
       <c r="K22">
-        <v>18.66460279351527</v>
+        <v>15.76200114138223</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.36585472506107</v>
+        <v>21.39708122201612</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.57422355872885</v>
+        <v>15.04010095955801</v>
       </c>
       <c r="C23">
-        <v>14.97979778116263</v>
+        <v>11.47378827561302</v>
       </c>
       <c r="D23">
-        <v>8.877634871234966</v>
+        <v>8.506477470922897</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>40.14159956284784</v>
+        <v>44.57704119001085</v>
       </c>
       <c r="G23">
-        <v>2.076035379849373</v>
+        <v>3.700427784020862</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.95186732885303</v>
+        <v>28.81419435029336</v>
       </c>
       <c r="J23">
-        <v>9.74712804189836</v>
+        <v>11.6495867400066</v>
       </c>
       <c r="K23">
-        <v>18.29040545008059</v>
+        <v>15.68528347144327</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.44913877900741</v>
+        <v>21.41899604964863</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.01191374044796</v>
+        <v>14.63896144584604</v>
       </c>
       <c r="C24">
-        <v>13.76841666511638</v>
+        <v>11.16617660918601</v>
       </c>
       <c r="D24">
-        <v>8.191557922816916</v>
+        <v>8.383564541065299</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.21073825151235</v>
+        <v>44.34244749185566</v>
       </c>
       <c r="G24">
-        <v>2.09000112888022</v>
+        <v>3.704816040280354</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.42974700976745</v>
+        <v>28.8200644468447</v>
       </c>
       <c r="J24">
-        <v>9.240241585705304</v>
+        <v>11.59864628289084</v>
       </c>
       <c r="K24">
-        <v>16.82432195152414</v>
+        <v>15.39777866869493</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.77290420037801</v>
+        <v>21.5053633827709</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.20885096467036</v>
+        <v>14.20757656173074</v>
       </c>
       <c r="C25">
-        <v>12.46202491338968</v>
+        <v>10.83642745644794</v>
       </c>
       <c r="D25">
-        <v>7.477939542313798</v>
+        <v>8.255927800820615</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.18847906857031</v>
+        <v>44.12689240913951</v>
       </c>
       <c r="G25">
-        <v>2.105358662500164</v>
+        <v>3.709893629872627</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.94019772415509</v>
+        <v>28.84697372500909</v>
       </c>
       <c r="J25">
-        <v>8.696515853825044</v>
+        <v>11.55243928125746</v>
       </c>
       <c r="K25">
-        <v>15.13370034661884</v>
+        <v>15.09573681659627</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.13882657208662</v>
+        <v>21.60573376568861</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_162/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_162/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.8936481850813</v>
+        <v>14.77560599120067</v>
       </c>
       <c r="C2">
-        <v>10.59735749239121</v>
+        <v>11.47451133834199</v>
       </c>
       <c r="D2">
-        <v>8.166759778793239</v>
+        <v>6.922526000652662</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.00087492219443</v>
+        <v>34.75316579402487</v>
       </c>
       <c r="G2">
-        <v>3.713931810602639</v>
+        <v>2.116999307453404</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.88440754206507</v>
+        <v>20.63738151488157</v>
       </c>
       <c r="J2">
-        <v>11.52603766646551</v>
+        <v>8.299926439455648</v>
       </c>
       <c r="K2">
-        <v>14.88178688550446</v>
+        <v>13.91268301071717</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.68586532855986</v>
+        <v>14.42185996037487</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.68454498280087</v>
+        <v>13.83452484140698</v>
       </c>
       <c r="C3">
-        <v>10.43867091367731</v>
+        <v>10.7755535487586</v>
       </c>
       <c r="D3">
-        <v>8.109599212614709</v>
+        <v>6.528284837475232</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.93603146977713</v>
+        <v>33.81555263321908</v>
       </c>
       <c r="G3">
-        <v>3.716857207070902</v>
+        <v>2.125131616618585</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.92071921284065</v>
+        <v>20.46527445212066</v>
       </c>
       <c r="J3">
-        <v>11.51293872351883</v>
+        <v>8.03439788765994</v>
       </c>
       <c r="K3">
-        <v>14.74279332933433</v>
+        <v>13.13479880764965</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.74407199604368</v>
+        <v>14.62192726928327</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.55840901770215</v>
+        <v>13.24952719195104</v>
       </c>
       <c r="C4">
-        <v>10.34322086755793</v>
+        <v>10.33231781249285</v>
       </c>
       <c r="D4">
-        <v>8.076200178254076</v>
+        <v>6.277895767152996</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>43.9063962854762</v>
+        <v>33.25786287482834</v>
       </c>
       <c r="G4">
-        <v>3.718747075407678</v>
+        <v>2.130255545894966</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.94839315325247</v>
+        <v>20.37498273935568</v>
       </c>
       <c r="J4">
-        <v>11.50727054991812</v>
+        <v>7.873343343632168</v>
       </c>
       <c r="K4">
-        <v>14.66064865370474</v>
+        <v>12.64293075312895</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.78174008309983</v>
+        <v>14.74879163144297</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.50764310668389</v>
+        <v>13.00565618239615</v>
       </c>
       <c r="C5">
-        <v>10.30487423839076</v>
+        <v>10.14828662386386</v>
       </c>
       <c r="D5">
-        <v>8.063029121009951</v>
+        <v>6.17386178765322</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>43.89688380662415</v>
+        <v>33.03524146439779</v>
       </c>
       <c r="G5">
-        <v>3.719540847657932</v>
+        <v>2.132377899822099</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.96102003402915</v>
+        <v>20.34191404781549</v>
       </c>
       <c r="J5">
-        <v>11.505559173429</v>
+        <v>7.808275165179189</v>
       </c>
       <c r="K5">
-        <v>14.62801299815201</v>
+        <v>12.43910694991799</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.79757581992575</v>
+        <v>14.80149604839851</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.49925383689722</v>
+        <v>12.96483593160055</v>
       </c>
       <c r="C6">
-        <v>10.29854150386067</v>
+        <v>10.11752708965766</v>
       </c>
       <c r="D6">
-        <v>8.06086895826542</v>
+        <v>6.15646954544584</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>43.8954592223866</v>
+        <v>32.99855896470294</v>
       </c>
       <c r="G6">
-        <v>3.719674082909986</v>
+        <v>2.132732428263703</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.96319813410103</v>
+        <v>20.33664385282486</v>
       </c>
       <c r="J6">
-        <v>11.50531117636661</v>
+        <v>7.797506615380597</v>
       </c>
       <c r="K6">
-        <v>14.62264552788335</v>
+        <v>12.40506451914904</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.80023468506425</v>
+        <v>14.81030823240913</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.55772170770595</v>
+        <v>13.24626021723757</v>
       </c>
       <c r="C7">
-        <v>10.34270141767414</v>
+        <v>10.32984950497903</v>
       </c>
       <c r="D7">
-        <v>8.076020754159801</v>
+        <v>6.276500678046851</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>43.90625761066677</v>
+        <v>33.25484158198982</v>
       </c>
       <c r="G7">
-        <v>3.718757684689031</v>
+        <v>2.130284027917079</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.94855798380075</v>
+        <v>20.37452186676563</v>
       </c>
       <c r="J7">
-        <v>11.50724504514578</v>
+        <v>7.872463443608135</v>
       </c>
       <c r="K7">
-        <v>14.66020507619291</v>
+        <v>12.64019531764339</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.78195168205934</v>
+        <v>14.74949835311264</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82112298801668</v>
+        <v>14.43960694720421</v>
       </c>
       <c r="C8">
-        <v>10.54226149486832</v>
+        <v>11.23649686769093</v>
       </c>
       <c r="D8">
-        <v>8.146706105228017</v>
+        <v>6.788368950372463</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.97640758638906</v>
+        <v>34.42620665421291</v>
       </c>
       <c r="G8">
-        <v>3.714921097718156</v>
+        <v>2.119777115572263</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.89580984542014</v>
+        <v>20.57476137543913</v>
       </c>
       <c r="J8">
-        <v>11.52102921359962</v>
+        <v>8.207998228690684</v>
       </c>
       <c r="K8">
-        <v>14.83321957424218</v>
+        <v>13.64752951850294</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.70553501345188</v>
+        <v>14.49000452046951</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.35249076596163</v>
+        <v>16.83236012073411</v>
       </c>
       <c r="C9">
-        <v>10.94705882343282</v>
+        <v>12.89907680928782</v>
       </c>
       <c r="D9">
-        <v>8.298212019862747</v>
+        <v>7.723056463885181</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.1944502990545</v>
+        <v>36.86151381575372</v>
       </c>
       <c r="G9">
-        <v>3.70813693947324</v>
+        <v>2.100138794984062</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.83516633386812</v>
+        <v>21.09577260475088</v>
       </c>
       <c r="J9">
-        <v>11.56682667001515</v>
+        <v>8.879186055753493</v>
       </c>
       <c r="K9">
-        <v>15.19626834355792</v>
+        <v>15.71820164873289</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.57095812667518</v>
+        <v>14.01341122140274</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.74785463664231</v>
+        <v>18.4450181333709</v>
       </c>
       <c r="C10">
-        <v>11.24959701496158</v>
+        <v>14.10304748040031</v>
       </c>
       <c r="D10">
-        <v>8.416563668046926</v>
+        <v>8.370455396970748</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>44.40319614351255</v>
+        <v>38.73007906178151</v>
       </c>
       <c r="G10">
-        <v>3.703598046345637</v>
+        <v>2.08619153391663</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.81684888471067</v>
+        <v>21.56539588258683</v>
       </c>
       <c r="J10">
-        <v>11.61179045826198</v>
+        <v>9.377617219821481</v>
       </c>
       <c r="K10">
-        <v>15.4752492467921</v>
+        <v>17.23061648201919</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.48135518972699</v>
+        <v>13.68366793511868</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.9279460075841</v>
+        <v>19.14607425967178</v>
       </c>
       <c r="C11">
-        <v>11.38770023459126</v>
+        <v>14.64664648261915</v>
       </c>
       <c r="D11">
-        <v>8.471748409061533</v>
+        <v>8.685423237680734</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.5085486139165</v>
+        <v>39.59683058088005</v>
       </c>
       <c r="G11">
-        <v>3.701628773244371</v>
+        <v>2.079924464011529</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.81423748687194</v>
+        <v>21.79976153223625</v>
       </c>
       <c r="J11">
-        <v>11.63466778198404</v>
+        <v>9.605147614211255</v>
       </c>
       <c r="K11">
-        <v>15.60432954337271</v>
+        <v>17.88848747197612</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.44259693250275</v>
+        <v>13.53834512025951</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.99610754469047</v>
+        <v>19.40699372734488</v>
       </c>
       <c r="C12">
-        <v>11.44001256828957</v>
+        <v>14.84956859756016</v>
       </c>
       <c r="D12">
-        <v>8.492822837615549</v>
+        <v>8.802572417955609</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.5499207556925</v>
+        <v>39.92745155287217</v>
       </c>
       <c r="G12">
-        <v>3.700896705862854</v>
+        <v>2.077560001264411</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.81407260364956</v>
+        <v>21.89164822960845</v>
       </c>
       <c r="J12">
-        <v>11.6436755690907</v>
+        <v>9.691405657824038</v>
       </c>
       <c r="K12">
-        <v>15.65347880149712</v>
+        <v>18.13340760214727</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.42820760007767</v>
+        <v>13.48401813000168</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.98143038339692</v>
+        <v>19.35100052181168</v>
       </c>
       <c r="C13">
-        <v>11.42874630234517</v>
+        <v>14.80599410967132</v>
       </c>
       <c r="D13">
-        <v>8.488276466539061</v>
+        <v>8.777435688913064</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.5409451083468</v>
+        <v>39.85613924008265</v>
       </c>
       <c r="G13">
-        <v>3.701053763662073</v>
+        <v>2.078068883044108</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.81407145066557</v>
+        <v>21.87171668372266</v>
       </c>
       <c r="J13">
-        <v>11.64172031774008</v>
+        <v>9.672824243354031</v>
       </c>
       <c r="K13">
-        <v>15.64288233150002</v>
+        <v>18.0808443047228</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.43129381605376</v>
+        <v>13.49568655271597</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.93355479263263</v>
+        <v>19.1676307943693</v>
       </c>
       <c r="C14">
-        <v>11.39200398616394</v>
+        <v>14.66339904108012</v>
       </c>
       <c r="D14">
-        <v>8.473478759114579</v>
+        <v>8.695103366113182</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.51192281971076</v>
+        <v>39.62398272200102</v>
       </c>
       <c r="G14">
-        <v>3.701568272427246</v>
+        <v>2.079729777796031</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.8142074018325</v>
+        <v>21.80725730712477</v>
       </c>
       <c r="J14">
-        <v>11.63540197412038</v>
+        <v>9.612242214814506</v>
       </c>
       <c r="K14">
-        <v>15.60836792943189</v>
+        <v>17.90872060409076</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.44140735210341</v>
+        <v>13.53386130080864</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.9042230096029</v>
+        <v>19.05472223796093</v>
       </c>
       <c r="C15">
-        <v>11.3694987478572</v>
+        <v>14.57567748796002</v>
       </c>
       <c r="D15">
-        <v>8.464437317317653</v>
+        <v>8.644397805431996</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.49433769572548</v>
+        <v>39.48209341830939</v>
       </c>
       <c r="G15">
-        <v>3.701885199695149</v>
+        <v>2.08074818610911</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.81439801555057</v>
+        <v>21.76818742324966</v>
       </c>
       <c r="J15">
-        <v>11.63157656904352</v>
+        <v>9.575146366927145</v>
       </c>
       <c r="K15">
-        <v>15.58726066841749</v>
+        <v>17.80274683417558</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.44763962504412</v>
+        <v>13.5573371118348</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.73608405381356</v>
+        <v>18.39855792319983</v>
       </c>
       <c r="C16">
-        <v>11.24057668359461</v>
+        <v>14.06710663939572</v>
       </c>
       <c r="D16">
-        <v>8.412982905672866</v>
+        <v>8.34957134933765</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>44.39651883519506</v>
+        <v>38.67377010523676</v>
       </c>
       <c r="G16">
-        <v>3.703728657836935</v>
+        <v>2.086602461994078</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.81713479161764</v>
+        <v>21.5505099361811</v>
       </c>
       <c r="J16">
-        <v>11.61034381490316</v>
+        <v>9.362761784220995</v>
       </c>
       <c r="K16">
-        <v>15.46685356905479</v>
+        <v>17.18702771781071</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.4839283960042</v>
+        <v>13.69326173546294</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.63294722738613</v>
+        <v>17.98777100706921</v>
       </c>
       <c r="C17">
-        <v>11.16157122236984</v>
+        <v>13.74979043919476</v>
       </c>
       <c r="D17">
-        <v>8.381750462154086</v>
+        <v>8.18191215733855</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.33916055494909</v>
+        <v>38.18215866190212</v>
       </c>
       <c r="G17">
-        <v>3.70488396184833</v>
+        <v>2.090212101058332</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.82028011728188</v>
+        <v>21.42239114515099</v>
       </c>
       <c r="J17">
-        <v>11.5979362472357</v>
+        <v>9.232657547263965</v>
       </c>
       <c r="K17">
-        <v>15.39351325233438</v>
+        <v>16.80167637763432</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.50670300318978</v>
+        <v>13.77786506639757</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.57365211878851</v>
+        <v>17.74842526955562</v>
       </c>
       <c r="C18">
-        <v>11.11617736129914</v>
+        <v>13.56529111165916</v>
       </c>
       <c r="D18">
-        <v>8.363914078346813</v>
+        <v>8.086407476589455</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.30714897663419</v>
+        <v>37.90096956123605</v>
       </c>
       <c r="G18">
-        <v>3.705557454965867</v>
+        <v>2.092295733240823</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.82262769006563</v>
+        <v>21.35064234595994</v>
       </c>
       <c r="J18">
-        <v>11.59102806702357</v>
+        <v>9.157899749072742</v>
       </c>
       <c r="K18">
-        <v>15.35153671445033</v>
+        <v>16.57718760127895</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.51999086757519</v>
+        <v>13.82696482257166</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.55358251010921</v>
+        <v>17.6668556740927</v>
       </c>
       <c r="C19">
-        <v>11.10081766011335</v>
+        <v>13.50247874882123</v>
       </c>
       <c r="D19">
-        <v>8.357897411051422</v>
+        <v>8.053910617071363</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.29647910203041</v>
+        <v>37.80603472883124</v>
       </c>
       <c r="G19">
-        <v>3.705787035074356</v>
+        <v>2.093002566978812</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.82351497414608</v>
+        <v>21.32667826298505</v>
       </c>
       <c r="J19">
-        <v>11.58872839965987</v>
+        <v>9.13260159426064</v>
       </c>
       <c r="K19">
-        <v>15.33736101113617</v>
+        <v>16.50068710549316</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.52452229967403</v>
+        <v>13.84366359435741</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.64392408933576</v>
+        <v>18.03181704208381</v>
       </c>
       <c r="C20">
-        <v>11.16997691013793</v>
+        <v>13.78377432501586</v>
       </c>
       <c r="D20">
-        <v>8.385062111311541</v>
+        <v>8.19951156384365</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.34516519557394</v>
+        <v>38.23432893209095</v>
       </c>
       <c r="G20">
-        <v>3.704760047608476</v>
+        <v>2.089827093161894</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.81988955227999</v>
+        <v>21.43582753339716</v>
       </c>
       <c r="J20">
-        <v>11.59923344943152</v>
+        <v>9.246499794295271</v>
       </c>
       <c r="K20">
-        <v>15.40129935308258</v>
+        <v>16.84299119885638</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.50425909986247</v>
+        <v>13.76881335093001</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.947618510589</v>
+        <v>19.22161349751599</v>
       </c>
       <c r="C21">
-        <v>11.40279608499694</v>
+        <v>14.70536123389056</v>
       </c>
       <c r="D21">
-        <v>8.477820528159365</v>
+        <v>8.719343491693335</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.52040741804939</v>
+        <v>39.69210738119619</v>
       </c>
       <c r="G21">
-        <v>3.70141677879578</v>
+        <v>2.079241716030186</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.81414509846302</v>
+        <v>21.82610415923094</v>
       </c>
       <c r="J21">
-        <v>11.63724850361261</v>
+        <v>9.630034053064279</v>
       </c>
       <c r="K21">
-        <v>15.61849867702082</v>
+        <v>17.95939042346912</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.43842895958375</v>
+        <v>13.52262907240017</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.14586489209724</v>
+        <v>19.97272975145183</v>
       </c>
       <c r="C22">
-        <v>11.55502462964447</v>
+        <v>15.29066913241516</v>
       </c>
       <c r="D22">
-        <v>8.539468403488398</v>
+        <v>9.056440613029743</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>44.64354067342819</v>
+        <v>40.65887474432161</v>
       </c>
       <c r="G22">
-        <v>3.699311307107043</v>
+        <v>2.072373201596962</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.8151939528233</v>
+        <v>22.09953811827485</v>
       </c>
       <c r="J22">
-        <v>11.66410032358261</v>
+        <v>9.881264498150843</v>
       </c>
       <c r="K22">
-        <v>15.76200114138223</v>
+        <v>18.66460279351531</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.39708122201612</v>
+        <v>13.36585472506109</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.04010095955801</v>
+        <v>19.57422355872882</v>
       </c>
       <c r="C23">
-        <v>11.47378827561302</v>
+        <v>14.97979778116271</v>
       </c>
       <c r="D23">
-        <v>8.506477470922897</v>
+        <v>8.877634871234871</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.57704119001085</v>
+        <v>40.14159956284784</v>
       </c>
       <c r="G23">
-        <v>3.700427784020862</v>
+        <v>2.076035379849638</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.81419435029336</v>
+        <v>21.95186732885299</v>
       </c>
       <c r="J23">
-        <v>11.6495867400066</v>
+        <v>9.747128041898337</v>
       </c>
       <c r="K23">
-        <v>15.68528347144327</v>
+        <v>18.2904054500806</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.41899604964863</v>
+        <v>13.44913877900741</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.63896144584604</v>
+        <v>18.01191374044803</v>
       </c>
       <c r="C24">
-        <v>11.16617660918601</v>
+        <v>13.76841666511629</v>
       </c>
       <c r="D24">
-        <v>8.383564541065299</v>
+        <v>8.191557922816896</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.34244749185566</v>
+        <v>38.21073825151233</v>
       </c>
       <c r="G24">
-        <v>3.704816040280354</v>
+        <v>2.090001128879954</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.8200644468447</v>
+        <v>21.42974700976738</v>
       </c>
       <c r="J24">
-        <v>11.59864628289084</v>
+        <v>9.24024158570532</v>
       </c>
       <c r="K24">
-        <v>15.39777866869493</v>
+        <v>16.82432195152414</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.5053633827709</v>
+        <v>13.77290420037796</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20757656173074</v>
+        <v>16.20885096467036</v>
       </c>
       <c r="C25">
-        <v>10.83642745644794</v>
+        <v>12.4620249133897</v>
       </c>
       <c r="D25">
-        <v>8.255927800820615</v>
+        <v>7.477939542313772</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.12689240913951</v>
+        <v>36.18847906857044</v>
       </c>
       <c r="G25">
-        <v>3.709893629872627</v>
+        <v>2.105358662500296</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.84697372500909</v>
+        <v>20.94019772415519</v>
       </c>
       <c r="J25">
-        <v>11.55243928125746</v>
+        <v>8.696515853825062</v>
       </c>
       <c r="K25">
-        <v>15.09573681659627</v>
+        <v>15.13370034661884</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.60573376568861</v>
+        <v>14.13882657208669</v>
       </c>
       <c r="O25">
         <v>0</v>
